--- a/MapaHoras.xlsx
+++ b/MapaHoras.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\arduino\desarrollos\Sketchs\Termostato\Codigo\ControladorM5s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEED5662-3A6A-494D-BDF3-2156E9E7C489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EB2702-6F37-4F5C-BA62-F48A0F47D870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Por defecto" sheetId="1" r:id="rId1"/>
     <sheet name="Jorge viene por las tardes" sheetId="2" r:id="rId2"/>
+    <sheet name="#QuedateEnCasa" sheetId="3" r:id="rId3"/>
+    <sheet name="Generador automatico" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="65">
   <si>
     <t>Lunes</t>
   </si>
@@ -66,12 +70,174 @@
   <si>
     <t>0,0,0,0,0,0,0,0,0,0,0,0,0,31,31,31,31,96,96,96,96,96,96,96,96,96,64,64,64,64,125,125,125,125,127,127,127,127,127,127,127,127,127,127,127,127,127,127</t>
   </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>",</t>
+  </si>
+  <si>
+    <t>:"</t>
+  </si>
+  <si>
+    <t>0000"</t>
+  </si>
+  <si>
+    <t>0030"</t>
+  </si>
+  <si>
+    <t>0100"</t>
+  </si>
+  <si>
+    <t>0130"</t>
+  </si>
+  <si>
+    <t>0200"</t>
+  </si>
+  <si>
+    <t>0230"</t>
+  </si>
+  <si>
+    <t>0300"</t>
+  </si>
+  <si>
+    <t>0330"</t>
+  </si>
+  <si>
+    <t>0400"</t>
+  </si>
+  <si>
+    <t>0430"</t>
+  </si>
+  <si>
+    <t>0500"</t>
+  </si>
+  <si>
+    <t>0530"</t>
+  </si>
+  <si>
+    <t>0600"</t>
+  </si>
+  <si>
+    <t>0630"</t>
+  </si>
+  <si>
+    <t>0700"</t>
+  </si>
+  <si>
+    <t>0730"</t>
+  </si>
+  <si>
+    <t>0800"</t>
+  </si>
+  <si>
+    <t>0830"</t>
+  </si>
+  <si>
+    <t>0900"</t>
+  </si>
+  <si>
+    <t>0930"</t>
+  </si>
+  <si>
+    <t>1000"</t>
+  </si>
+  <si>
+    <t>1030"</t>
+  </si>
+  <si>
+    <t>1100"</t>
+  </si>
+  <si>
+    <t>1130"</t>
+  </si>
+  <si>
+    <t>1200"</t>
+  </si>
+  <si>
+    <t>1230"</t>
+  </si>
+  <si>
+    <t>1300"</t>
+  </si>
+  <si>
+    <t>1330"</t>
+  </si>
+  <si>
+    <t>1400"</t>
+  </si>
+  <si>
+    <t>1430"</t>
+  </si>
+  <si>
+    <t>1500"</t>
+  </si>
+  <si>
+    <t>1530"</t>
+  </si>
+  <si>
+    <t>1600"</t>
+  </si>
+  <si>
+    <t>1630"</t>
+  </si>
+  <si>
+    <t>1700"</t>
+  </si>
+  <si>
+    <t>1730"</t>
+  </si>
+  <si>
+    <t>1800"</t>
+  </si>
+  <si>
+    <t>1830"</t>
+  </si>
+  <si>
+    <t>1900"</t>
+  </si>
+  <si>
+    <t>1930"</t>
+  </si>
+  <si>
+    <t>2000"</t>
+  </si>
+  <si>
+    <t>2030"</t>
+  </si>
+  <si>
+    <t>2100"</t>
+  </si>
+  <si>
+    <t>2130"</t>
+  </si>
+  <si>
+    <t>2200"</t>
+  </si>
+  <si>
+    <t>2230"</t>
+  </si>
+  <si>
+    <t>2300"</t>
+  </si>
+  <si>
+    <t>2330"</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +245,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -96,13 +288,246 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11896,7 +12321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A953D1AA-4D58-42FD-A76A-3DC219033131}">
   <dimension ref="A1:AX76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -14136,7 +14561,7 @@
         <v>0,0,</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18:R63" si="4">+D17</f>
+        <f t="shared" ref="C18:R38" si="4">+D17</f>
         <v>0,</v>
       </c>
       <c r="D18" t="str">
@@ -18184,7 +18609,7 @@
         <v>64,</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ref="D38:S57" si="8">+K37</f>
+        <f t="shared" ref="D38:S54" si="8">+K37</f>
         <v>64,</v>
       </c>
       <c r="K38" t="str">
@@ -18357,7 +18782,7 @@
         <v>0,0,0,0,0,0,0,0,0,0,0,0,0,31,31,31,31,96,96,96,96,96,96,</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:R84" si="10">+D38</f>
+        <f t="shared" ref="C39:R63" si="10">+D38</f>
         <v>96,</v>
       </c>
       <c r="D39" t="str">
@@ -21396,7 +21821,7 @@
         <v>127,</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" ref="D54:S69" si="12">+J53</f>
+        <f t="shared" ref="D54:S63" si="12">+J53</f>
         <v>127,</v>
       </c>
       <c r="J54" t="str">
@@ -21500,7 +21925,7 @@
         <v>0</v>
       </c>
       <c r="AI54">
-        <f t="shared" ref="AI54:AX70" si="13">+AJ53</f>
+        <f t="shared" ref="AI54:AX63" si="13">+AJ53</f>
         <v>0</v>
       </c>
       <c r="AJ54">
@@ -23395,6 +23820,5375 @@
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD277BE-80B4-4C7B-B431-CECC9B430E5E}">
+  <dimension ref="A1:AX61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="50" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="AX2" s="1"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f>1*B3+2*B4+4*B5+8*B6+16*B7+32*B8+64*B9+128*B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:AW11" si="0">1*C3+2*C4+4*C5+8*C6+16*C7+32*C8+64*C9+128*C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f>+B11</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="str">
+        <f>+CONCATENATE(A14,B14,C14,D14,E14)</f>
+        <v>"0000":"0",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f>+C11</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15:G61" si="1">+CONCATENATE(A15,B15,C15,D15,E15)</f>
+        <v>"0030":"0",</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <f>+D11</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>"0100":"0",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <f>+E11</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>"0130":"0",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <f>+F11</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>"0200":"0",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <f>+G11</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>"0230":"0",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <f>+H11</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>"0300":"0",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <f>+I11</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>"0330":"0",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <f>+J11</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>"0400":"0",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <f>+K11</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>"0430":"0",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <f>+L11</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>"0500":"0",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <f>+M11</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>"0530":"0",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <f>+N11</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>"0600":"0",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <f>+O11</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>"0630":"0",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <f>+P11</f>
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>"0700":"31",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <f>+Q11</f>
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>"0730":"31",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <f>+R11</f>
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>"0800":"31",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <f>+S11</f>
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>"0830":"127",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <f>+T11</f>
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>"0900":"127",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <f>+U11</f>
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>"0930":"127",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <f>+V11</f>
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>"1000":"127",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <f>+W11</f>
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>"1030":"127",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <f>+X11</f>
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>"1100":"127",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <f>+Y11</f>
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>"1130":"127",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <f>+Z11</f>
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>"1200":"127",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <f>+AA11</f>
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>"1230":"127",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <f>+AB11</f>
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>"1300":"95",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <f>+AC11</f>
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>"1330":"95",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <f>+AD11</f>
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>"1400":"95",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <f>+AE11</f>
+        <v>95</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>"1430":"95",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <f>+AF11</f>
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>"1500":"127",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <f>+AG11</f>
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>"1530":"127",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <f>+AH11</f>
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>"1600":"127",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <f>+AI11</f>
+        <v>127</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>"1630":"127",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <f>+AJ11</f>
+        <v>127</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>"1700":"127",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <f>+AK11</f>
+        <v>127</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>"1730":"127",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <f>+AL11</f>
+        <v>127</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>"1800":"127",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <f>+AM11</f>
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>"1830":"127",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <f>+AN11</f>
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>"1900":"127",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <f>+AO11</f>
+        <v>127</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>"1930":"127",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <f>+AP11</f>
+        <v>127</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>"2000":"127",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <f>+AQ11</f>
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>"2030":"127",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <f>+AR11</f>
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>"2100":"127",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <f>+AS11</f>
+        <v>127</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>"2130":"127",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <f>+AT11</f>
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>"2200":"127",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <f>+AU11</f>
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>"2230":"127",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <f>+AV11</f>
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>"2300":"127",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <f>+AW11</f>
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>"2330":"127"</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A227-2FCC-426A-81C3-15B0DED7161C}">
+  <dimension ref="B1:U50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="5.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="36" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="17">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <f>1*C2+2*D2+4*E2+8*F2+16*G2+32*H2+64*I2+128*J2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2">
+        <f>+K2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="21" t="str">
+        <f>+CONCATENATE(O2,P2,Q2,R2,S2)</f>
+        <v xml:space="preserve">  "0000":"0",</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="18">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>1*C3+2*D3+4*E3+8*F3+16*G3+32*H3+64*I3+128*J3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3">
+        <f>+K3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="21" t="str">
+        <f t="shared" ref="U3:U49" si="0">+CONCATENATE(O3,P3,Q3,R3,S3)</f>
+        <v xml:space="preserve">  "0030":"0",</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <f>1*C4+2*D4+4*E4+8*F4+16*G4+32*H4+64*I4+128*J4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <f>+K4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0100":"0",</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f>1*C5+2*D5+4*E5+8*F5+16*G5+32*H5+64*I5+128*J5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5">
+        <f>+K5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0130":"0",</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <f>1*C6+2*D6+4*E6+8*F6+16*G6+32*H6+64*I6+128*J6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <f>+K6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0200":"0",</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f>1*C7+2*D7+4*E7+8*F7+16*G7+32*H7+64*I7+128*J7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7">
+        <f>+K7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0230":"0",</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>0.125</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <f>1*C8+2*D8+4*E8+8*F8+16*G8+32*H8+64*I8+128*J8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8">
+        <f>+K8</f>
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0300":"0",</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f>1*C9+2*D9+4*E9+8*F9+16*G9+32*H9+64*I9+128*J9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9">
+        <f>+K9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0330":"0",</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <f>1*C10+2*D10+4*E10+8*F10+16*G10+32*H10+64*I10+128*J10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <f>+K10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0400":"0",</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>1*C11+2*D11+4*E11+8*F11+16*G11+32*H11+64*I11+128*J11</f>
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11">
+        <f>+K11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0430":"0",</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <f>1*C12+2*D12+4*E12+8*F12+16*G12+32*H12+64*I12+128*J12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12">
+        <f>+K12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0500":"0",</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f>1*C13+2*D13+4*E13+8*F13+16*G13+32*H13+64*I13+128*J13</f>
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13">
+        <f>+K13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0530":"0",</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <f>1*C14+2*D14+4*E14+8*F14+16*G14+32*H14+64*I14+128*J14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f>+K14</f>
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0600":"0",</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f>1*C15+2*D15+4*E15+8*F15+16*G15+32*H15+64*I15+128*J15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15">
+        <f>+K15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0630":"0",</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <f>1*C16+2*D16+4*E16+8*F16+16*G16+32*H16+64*I16+128*J16</f>
+        <v>31</v>
+      </c>
+      <c r="O16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <f>+K16</f>
+        <v>31</v>
+      </c>
+      <c r="S16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0700":"31",</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>0.3125</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>1*C17+2*D17+4*E17+8*F17+16*G17+32*H17+64*I17+128*J17</f>
+        <v>31</v>
+      </c>
+      <c r="O17" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17">
+        <f>+K17</f>
+        <v>31</v>
+      </c>
+      <c r="S17" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0730":"31",</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <f>1*C18+2*D18+4*E18+8*F18+16*G18+32*H18+64*I18+128*J18</f>
+        <v>31</v>
+      </c>
+      <c r="O18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18">
+        <f>+K18</f>
+        <v>31</v>
+      </c>
+      <c r="S18" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0800":"31",</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f>1*C19+2*D19+4*E19+8*F19+16*G19+32*H19+64*I19+128*J19</f>
+        <v>127</v>
+      </c>
+      <c r="O19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19">
+        <f>+K19</f>
+        <v>127</v>
+      </c>
+      <c r="S19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0830":"127",</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <f>1*C20+2*D20+4*E20+8*F20+16*G20+32*H20+64*I20+128*J20</f>
+        <v>127</v>
+      </c>
+      <c r="O20" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <f>+K20</f>
+        <v>127</v>
+      </c>
+      <c r="S20" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0900":"127",</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f>1*C21+2*D21+4*E21+8*F21+16*G21+32*H21+64*I21+128*J21</f>
+        <v>127</v>
+      </c>
+      <c r="O21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <f>+K21</f>
+        <v>127</v>
+      </c>
+      <c r="S21" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "0930":"127",</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <f>1*C22+2*D22+4*E22+8*F22+16*G22+32*H22+64*I22+128*J22</f>
+        <v>127</v>
+      </c>
+      <c r="O22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22">
+        <f>+K22</f>
+        <v>127</v>
+      </c>
+      <c r="S22" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1000":"127",</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="18">
+        <v>0.4375</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f>1*C23+2*D23+4*E23+8*F23+16*G23+32*H23+64*I23+128*J23</f>
+        <v>127</v>
+      </c>
+      <c r="O23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23">
+        <f>+K23</f>
+        <v>127</v>
+      </c>
+      <c r="S23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U23" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1030":"127",</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <f>1*C24+2*D24+4*E24+8*F24+16*G24+32*H24+64*I24+128*J24</f>
+        <v>127</v>
+      </c>
+      <c r="O24" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24">
+        <f>+K24</f>
+        <v>127</v>
+      </c>
+      <c r="S24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U24" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1100":"127",</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f>1*C25+2*D25+4*E25+8*F25+16*G25+32*H25+64*I25+128*J25</f>
+        <v>127</v>
+      </c>
+      <c r="O25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25">
+        <f>+K25</f>
+        <v>127</v>
+      </c>
+      <c r="S25" t="s">
+        <v>12</v>
+      </c>
+      <c r="U25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1130":"127",</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <f>1*C26+2*D26+4*E26+8*F26+16*G26+32*H26+64*I26+128*J26</f>
+        <v>127</v>
+      </c>
+      <c r="O26" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26">
+        <f>+K26</f>
+        <v>127</v>
+      </c>
+      <c r="S26" t="s">
+        <v>12</v>
+      </c>
+      <c r="U26" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1200":"127",</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <f>1*C27+2*D27+4*E27+8*F27+16*G27+32*H27+64*I27+128*J27</f>
+        <v>127</v>
+      </c>
+      <c r="O27" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27">
+        <f>+K27</f>
+        <v>127</v>
+      </c>
+      <c r="S27" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1230":"127",</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="19">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <f>1*C28+2*D28+4*E28+8*F28+16*G28+32*H28+64*I28+128*J28</f>
+        <v>95</v>
+      </c>
+      <c r="O28" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28">
+        <f>+K28</f>
+        <v>95</v>
+      </c>
+      <c r="S28" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1300":"95",</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="18">
+        <v>0.5625</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f>1*C29+2*D29+4*E29+8*F29+16*G29+32*H29+64*I29+128*J29</f>
+        <v>95</v>
+      </c>
+      <c r="O29" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29">
+        <f>+K29</f>
+        <v>95</v>
+      </c>
+      <c r="S29" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1330":"95",</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <f>1*C30+2*D30+4*E30+8*F30+16*G30+32*H30+64*I30+128*J30</f>
+        <v>95</v>
+      </c>
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <f>+K30</f>
+        <v>95</v>
+      </c>
+      <c r="S30" t="s">
+        <v>12</v>
+      </c>
+      <c r="U30" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1400":"95",</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <f>1*C31+2*D31+4*E31+8*F31+16*G31+32*H31+64*I31+128*J31</f>
+        <v>95</v>
+      </c>
+      <c r="O31" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31">
+        <f>+K31</f>
+        <v>95</v>
+      </c>
+      <c r="S31" t="s">
+        <v>12</v>
+      </c>
+      <c r="U31" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1430":"95",</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <f>1*C32+2*D32+4*E32+8*F32+16*G32+32*H32+64*I32+128*J32</f>
+        <v>127</v>
+      </c>
+      <c r="O32" t="s">
+        <v>64</v>
+      </c>
+      <c r="P32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32">
+        <f>+K32</f>
+        <v>127</v>
+      </c>
+      <c r="S32" t="s">
+        <v>12</v>
+      </c>
+      <c r="U32" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1500":"127",</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <f>1*C33+2*D33+4*E33+8*F33+16*G33+32*H33+64*I33+128*J33</f>
+        <v>127</v>
+      </c>
+      <c r="O33" t="s">
+        <v>64</v>
+      </c>
+      <c r="P33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>13</v>
+      </c>
+      <c r="R33">
+        <f>+K33</f>
+        <v>127</v>
+      </c>
+      <c r="S33" t="s">
+        <v>12</v>
+      </c>
+      <c r="U33" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1530":"127",</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="19">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <f>1*C34+2*D34+4*E34+8*F34+16*G34+32*H34+64*I34+128*J34</f>
+        <v>127</v>
+      </c>
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34">
+        <f>+K34</f>
+        <v>127</v>
+      </c>
+      <c r="S34" t="s">
+        <v>12</v>
+      </c>
+      <c r="U34" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1600":"127",</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <f>1*C35+2*D35+4*E35+8*F35+16*G35+32*H35+64*I35+128*J35</f>
+        <v>127</v>
+      </c>
+      <c r="O35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P35" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35">
+        <f>+K35</f>
+        <v>127</v>
+      </c>
+      <c r="S35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U35" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1630":"127",</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="19">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <f>1*C36+2*D36+4*E36+8*F36+16*G36+32*H36+64*I36+128*J36</f>
+        <v>127</v>
+      </c>
+      <c r="O36" t="s">
+        <v>64</v>
+      </c>
+      <c r="P36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36">
+        <f>+K36</f>
+        <v>127</v>
+      </c>
+      <c r="S36" t="s">
+        <v>12</v>
+      </c>
+      <c r="U36" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1700":"127",</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <f>1*C37+2*D37+4*E37+8*F37+16*G37+32*H37+64*I37+128*J37</f>
+        <v>127</v>
+      </c>
+      <c r="O37" t="s">
+        <v>64</v>
+      </c>
+      <c r="P37" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37">
+        <f>+K37</f>
+        <v>127</v>
+      </c>
+      <c r="S37" t="s">
+        <v>12</v>
+      </c>
+      <c r="U37" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1730":"127",</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <f>1*C38+2*D38+4*E38+8*F38+16*G38+32*H38+64*I38+128*J38</f>
+        <v>127</v>
+      </c>
+      <c r="O38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38">
+        <f>+K38</f>
+        <v>127</v>
+      </c>
+      <c r="S38" t="s">
+        <v>12</v>
+      </c>
+      <c r="U38" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1800":"127",</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="18">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f>1*C39+2*D39+4*E39+8*F39+16*G39+32*H39+64*I39+128*J39</f>
+        <v>127</v>
+      </c>
+      <c r="O39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P39" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39">
+        <f>+K39</f>
+        <v>127</v>
+      </c>
+      <c r="S39" t="s">
+        <v>12</v>
+      </c>
+      <c r="U39" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1830":"127",</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="19">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <f>1*C40+2*D40+4*E40+8*F40+16*G40+32*H40+64*I40+128*J40</f>
+        <v>127</v>
+      </c>
+      <c r="O40" t="s">
+        <v>64</v>
+      </c>
+      <c r="P40" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40">
+        <f>+K40</f>
+        <v>127</v>
+      </c>
+      <c r="S40" t="s">
+        <v>12</v>
+      </c>
+      <c r="U40" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1900":"127",</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="18">
+        <v>0.8125</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <f>1*C41+2*D41+4*E41+8*F41+16*G41+32*H41+64*I41+128*J41</f>
+        <v>127</v>
+      </c>
+      <c r="O41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P41" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41">
+        <f>+K41</f>
+        <v>127</v>
+      </c>
+      <c r="S41" t="s">
+        <v>12</v>
+      </c>
+      <c r="U41" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "1930":"127",</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="19">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C42" s="15">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <f>1*C42+2*D42+4*E42+8*F42+16*G42+32*H42+64*I42+128*J42</f>
+        <v>127</v>
+      </c>
+      <c r="O42" t="s">
+        <v>64</v>
+      </c>
+      <c r="P42" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42">
+        <f>+K42</f>
+        <v>127</v>
+      </c>
+      <c r="S42" t="s">
+        <v>12</v>
+      </c>
+      <c r="U42" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "2000":"127",</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="18">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="C43" s="14">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f>1*C43+2*D43+4*E43+8*F43+16*G43+32*H43+64*I43+128*J43</f>
+        <v>127</v>
+      </c>
+      <c r="O43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P43" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43">
+        <f>+K43</f>
+        <v>127</v>
+      </c>
+      <c r="S43" t="s">
+        <v>12</v>
+      </c>
+      <c r="U43" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "2030":"127",</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="19">
+        <v>0.875</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <f>1*C44+2*D44+4*E44+8*F44+16*G44+32*H44+64*I44+128*J44</f>
+        <v>127</v>
+      </c>
+      <c r="O44" t="s">
+        <v>64</v>
+      </c>
+      <c r="P44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44">
+        <f>+K44</f>
+        <v>127</v>
+      </c>
+      <c r="S44" t="s">
+        <v>12</v>
+      </c>
+      <c r="U44" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "2100":"127",</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="18">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <f>1*C45+2*D45+4*E45+8*F45+16*G45+32*H45+64*I45+128*J45</f>
+        <v>127</v>
+      </c>
+      <c r="O45" t="s">
+        <v>64</v>
+      </c>
+      <c r="P45" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45">
+        <f>+K45</f>
+        <v>127</v>
+      </c>
+      <c r="S45" t="s">
+        <v>12</v>
+      </c>
+      <c r="U45" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "2130":"127",</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="19">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <f>1*C46+2*D46+4*E46+8*F46+16*G46+32*H46+64*I46+128*J46</f>
+        <v>127</v>
+      </c>
+      <c r="O46" t="s">
+        <v>64</v>
+      </c>
+      <c r="P46" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46">
+        <f>+K46</f>
+        <v>127</v>
+      </c>
+      <c r="S46" t="s">
+        <v>12</v>
+      </c>
+      <c r="U46" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "2200":"127",</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="18">
+        <v>0.9375</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f>1*C47+2*D47+4*E47+8*F47+16*G47+32*H47+64*I47+128*J47</f>
+        <v>127</v>
+      </c>
+      <c r="O47" t="s">
+        <v>64</v>
+      </c>
+      <c r="P47" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>13</v>
+      </c>
+      <c r="R47">
+        <f>+K47</f>
+        <v>127</v>
+      </c>
+      <c r="S47" t="s">
+        <v>12</v>
+      </c>
+      <c r="U47" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "2230":"127",</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="19">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <f>1*C48+2*D48+4*E48+8*F48+16*G48+32*H48+64*I48+128*J48</f>
+        <v>127</v>
+      </c>
+      <c r="O48" t="s">
+        <v>64</v>
+      </c>
+      <c r="P48" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>13</v>
+      </c>
+      <c r="R48">
+        <f>+K48</f>
+        <v>127</v>
+      </c>
+      <c r="S48" t="s">
+        <v>12</v>
+      </c>
+      <c r="U48" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "2300":"127",</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="C49" s="16">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <f>1*C49+2*D49+4*E49+8*F49+16*G49+32*H49+64*I49+128*J49</f>
+        <v>127</v>
+      </c>
+      <c r="O49" t="s">
+        <v>64</v>
+      </c>
+      <c r="P49" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>13</v>
+      </c>
+      <c r="R49">
+        <f>+K49</f>
+        <v>127</v>
+      </c>
+      <c r="S49" t="s">
+        <v>11</v>
+      </c>
+      <c r="U49" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  "2330":"127"</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U50" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/MapaHoras.xlsx
+++ b/MapaHoras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\arduino\desarrollos\Sketchs\Termostato\Codigo\ControladorM5s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EB2702-6F37-4F5C-BA62-F48A0F47D870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863AB57B-3713-43C7-A359-C24C74D49FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="66">
   <si>
     <t>Lunes</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t xml:space="preserve">  "</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127</t>
   </si>
 </sst>
 </file>
@@ -26588,10 +26591,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A227-2FCC-426A-81C3-15B0DED7161C}">
-  <dimension ref="B1:U50"/>
+  <dimension ref="B1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView tabSelected="1" topLeftCell="I26" workbookViewId="0">
+      <selection activeCell="AA51" sqref="AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26610,7 +26613,7 @@
     <col min="22" max="36" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
@@ -26642,7 +26645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="17">
         <v>0</v>
       </c>
@@ -26671,7 +26674,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="9">
-        <f>1*C2+2*D2+4*E2+8*F2+16*G2+32*H2+64*I2+128*J2</f>
+        <f t="shared" ref="K2:K49" si="0">1*C2+2*D2+4*E2+8*F2+16*G2+32*H2+64*I2+128*J2</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
@@ -26684,7 +26687,7 @@
         <v>13</v>
       </c>
       <c r="R2">
-        <f>+K2</f>
+        <f t="shared" ref="R2:R49" si="1">+K2</f>
         <v>0</v>
       </c>
       <c r="S2" t="s">
@@ -26694,8 +26697,16 @@
         <f>+CONCATENATE(O2,P2,Q2,R2,S2)</f>
         <v xml:space="preserve">  "0000":"0",</v>
       </c>
+      <c r="Y2">
+        <f>+R2</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>+Y2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -26724,7 +26735,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>1*C3+2*D3+4*E3+8*F3+16*G3+32*H3+64*I3+128*J3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" t="s">
@@ -26737,18 +26748,26 @@
         <v>13</v>
       </c>
       <c r="R3">
-        <f>+K3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S3" t="s">
         <v>12</v>
       </c>
       <c r="U3" s="21" t="str">
-        <f t="shared" ref="U3:U49" si="0">+CONCATENATE(O3,P3,Q3,R3,S3)</f>
+        <f t="shared" ref="U3:U49" si="2">+CONCATENATE(O3,P3,Q3,R3,S3)</f>
         <v xml:space="preserve">  "0030":"0",</v>
       </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y49" si="3">+R3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>+CONCATENATE(AA2,"|",Y3)</f>
+        <v>0|0</v>
+      </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -26777,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f>1*C4+2*D4+4*E4+8*F4+16*G4+32*H4+64*I4+128*J4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" t="s">
@@ -26790,18 +26809,26 @@
         <v>13</v>
       </c>
       <c r="R4">
-        <f>+K4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S4" t="s">
         <v>12</v>
       </c>
       <c r="U4" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0100":"0",</v>
       </c>
+      <c r="Y4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" ref="AA4:AA49" si="4">+CONCATENATE(AA3,"|",Y4)</f>
+        <v>0|0|0</v>
+      </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <v>6.25E-2</v>
       </c>
@@ -26830,7 +26857,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>1*C5+2*D5+4*E5+8*F5+16*G5+32*H5+64*I5+128*J5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" t="s">
@@ -26843,18 +26870,26 @@
         <v>13</v>
       </c>
       <c r="R5">
-        <f>+K5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" t="s">
         <v>12</v>
       </c>
       <c r="U5" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0130":"0",</v>
       </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0</v>
+      </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -26883,7 +26918,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f>1*C6+2*D6+4*E6+8*F6+16*G6+32*H6+64*I6+128*J6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6" t="s">
@@ -26896,18 +26931,26 @@
         <v>13</v>
       </c>
       <c r="R6">
-        <f>+K6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0200":"0",</v>
       </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0</v>
+      </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <v>0.104166666666667</v>
       </c>
@@ -26936,7 +26979,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f>1*C7+2*D7+4*E7+8*F7+16*G7+32*H7+64*I7+128*J7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7" t="s">
@@ -26949,18 +26992,26 @@
         <v>13</v>
       </c>
       <c r="R7">
-        <f>+K7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S7" t="s">
         <v>12</v>
       </c>
       <c r="U7" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0230":"0",</v>
       </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0</v>
+      </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>0.125</v>
       </c>
@@ -26989,7 +27040,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f>1*C8+2*D8+4*E8+8*F8+16*G8+32*H8+64*I8+128*J8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O8" t="s">
@@ -27002,18 +27053,26 @@
         <v>13</v>
       </c>
       <c r="R8">
-        <f>+K8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S8" t="s">
         <v>12</v>
       </c>
       <c r="U8" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0300":"0",</v>
       </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0</v>
+      </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>0.14583333333333301</v>
       </c>
@@ -27042,7 +27101,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f>1*C9+2*D9+4*E9+8*F9+16*G9+32*H9+64*I9+128*J9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O9" t="s">
@@ -27055,18 +27114,26 @@
         <v>13</v>
       </c>
       <c r="R9">
-        <f>+K9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S9" t="s">
         <v>12</v>
       </c>
       <c r="U9" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0330":"0",</v>
       </c>
+      <c r="Y9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0</v>
+      </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>0.16666666666666699</v>
       </c>
@@ -27095,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f>1*C10+2*D10+4*E10+8*F10+16*G10+32*H10+64*I10+128*J10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" t="s">
@@ -27108,18 +27175,26 @@
         <v>13</v>
       </c>
       <c r="R10">
-        <f>+K10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S10" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0400":"0",</v>
       </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0</v>
+      </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <v>0.1875</v>
       </c>
@@ -27148,7 +27223,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f>1*C11+2*D11+4*E11+8*F11+16*G11+32*H11+64*I11+128*J11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O11" t="s">
@@ -27161,18 +27236,26 @@
         <v>13</v>
       </c>
       <c r="R11">
-        <f>+K11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11" t="s">
         <v>12</v>
       </c>
       <c r="U11" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0430":"0",</v>
       </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0</v>
+      </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <v>0.20833333333333301</v>
       </c>
@@ -27201,7 +27284,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <f>1*C12+2*D12+4*E12+8*F12+16*G12+32*H12+64*I12+128*J12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O12" t="s">
@@ -27214,18 +27297,26 @@
         <v>13</v>
       </c>
       <c r="R12">
-        <f>+K12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S12" t="s">
         <v>12</v>
       </c>
       <c r="U12" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0500":"0",</v>
       </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0</v>
+      </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>0.22916666666666699</v>
       </c>
@@ -27254,7 +27345,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f>1*C13+2*D13+4*E13+8*F13+16*G13+32*H13+64*I13+128*J13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O13" t="s">
@@ -27267,18 +27358,26 @@
         <v>13</v>
       </c>
       <c r="R13">
-        <f>+K13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S13" t="s">
         <v>12</v>
       </c>
       <c r="U13" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0530":"0",</v>
       </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0</v>
+      </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
         <v>0.25</v>
       </c>
@@ -27307,7 +27406,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <f>1*C14+2*D14+4*E14+8*F14+16*G14+32*H14+64*I14+128*J14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14" t="s">
@@ -27320,18 +27419,26 @@
         <v>13</v>
       </c>
       <c r="R14">
-        <f>+K14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S14" t="s">
         <v>12</v>
       </c>
       <c r="U14" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0600":"0",</v>
       </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0</v>
+      </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>0.27083333333333298</v>
       </c>
@@ -27360,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <f>1*C15+2*D15+4*E15+8*F15+16*G15+32*H15+64*I15+128*J15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O15" t="s">
@@ -27373,18 +27480,26 @@
         <v>13</v>
       </c>
       <c r="R15">
-        <f>+K15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S15" t="s">
         <v>12</v>
       </c>
       <c r="U15" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0630":"0",</v>
       </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0</v>
+      </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
         <v>0.29166666666666702</v>
       </c>
@@ -27413,7 +27528,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="5">
-        <f>1*C16+2*D16+4*E16+8*F16+16*G16+32*H16+64*I16+128*J16</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="O16" t="s">
@@ -27426,18 +27541,26 @@
         <v>13</v>
       </c>
       <c r="R16">
-        <f>+K16</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="S16" t="s">
         <v>12</v>
       </c>
       <c r="U16" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0700":"31",</v>
       </c>
+      <c r="Y16">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31</v>
+      </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>0.3125</v>
       </c>
@@ -27466,7 +27589,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f>1*C17+2*D17+4*E17+8*F17+16*G17+32*H17+64*I17+128*J17</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="O17" t="s">
@@ -27479,18 +27602,26 @@
         <v>13</v>
       </c>
       <c r="R17">
-        <f>+K17</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="S17" t="s">
         <v>12</v>
       </c>
       <c r="U17" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0730":"31",</v>
       </c>
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31</v>
+      </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="19">
         <v>0.33333333333333298</v>
       </c>
@@ -27519,7 +27650,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="5">
-        <f>1*C18+2*D18+4*E18+8*F18+16*G18+32*H18+64*I18+128*J18</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="O18" t="s">
@@ -27532,18 +27663,26 @@
         <v>13</v>
       </c>
       <c r="R18">
-        <f>+K18</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="S18" t="s">
         <v>12</v>
       </c>
       <c r="U18" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0800":"31",</v>
       </c>
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31</v>
+      </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <v>0.35416666666666702</v>
       </c>
@@ -27572,7 +27711,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <f>1*C19+2*D19+4*E19+8*F19+16*G19+32*H19+64*I19+128*J19</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O19" t="s">
@@ -27585,18 +27724,26 @@
         <v>13</v>
       </c>
       <c r="R19">
-        <f>+K19</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S19" t="s">
         <v>12</v>
       </c>
       <c r="U19" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0830":"127",</v>
       </c>
+      <c r="Y19">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127</v>
+      </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="19">
         <v>0.375</v>
       </c>
@@ -27625,7 +27772,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="5">
-        <f>1*C20+2*D20+4*E20+8*F20+16*G20+32*H20+64*I20+128*J20</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O20" t="s">
@@ -27638,18 +27785,26 @@
         <v>13</v>
       </c>
       <c r="R20">
-        <f>+K20</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S20" t="s">
         <v>12</v>
       </c>
       <c r="U20" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0900":"127",</v>
       </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127</v>
+      </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <v>0.39583333333333298</v>
       </c>
@@ -27678,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f>1*C21+2*D21+4*E21+8*F21+16*G21+32*H21+64*I21+128*J21</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O21" t="s">
@@ -27691,18 +27846,26 @@
         <v>13</v>
       </c>
       <c r="R21">
-        <f>+K21</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S21" t="s">
         <v>12</v>
       </c>
       <c r="U21" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "0930":"127",</v>
       </c>
+      <c r="Y21">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127</v>
+      </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="19">
         <v>0.41666666666666702</v>
       </c>
@@ -27731,7 +27894,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="5">
-        <f>1*C22+2*D22+4*E22+8*F22+16*G22+32*H22+64*I22+128*J22</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O22" t="s">
@@ -27744,18 +27907,26 @@
         <v>13</v>
       </c>
       <c r="R22">
-        <f>+K22</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S22" t="s">
         <v>12</v>
       </c>
       <c r="U22" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1000":"127",</v>
       </c>
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127</v>
+      </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <v>0.4375</v>
       </c>
@@ -27784,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <f>1*C23+2*D23+4*E23+8*F23+16*G23+32*H23+64*I23+128*J23</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O23" t="s">
@@ -27797,18 +27968,26 @@
         <v>13</v>
       </c>
       <c r="R23">
-        <f>+K23</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S23" t="s">
         <v>12</v>
       </c>
       <c r="U23" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1030":"127",</v>
       </c>
+      <c r="Y23">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
         <v>0.45833333333333298</v>
       </c>
@@ -27837,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="5">
-        <f>1*C24+2*D24+4*E24+8*F24+16*G24+32*H24+64*I24+128*J24</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O24" t="s">
@@ -27850,18 +28029,26 @@
         <v>13</v>
       </c>
       <c r="R24">
-        <f>+K24</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S24" t="s">
         <v>12</v>
       </c>
       <c r="U24" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1100":"127",</v>
       </c>
+      <c r="Y24">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <v>0.47916666666666702</v>
       </c>
@@ -27890,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <f>1*C25+2*D25+4*E25+8*F25+16*G25+32*H25+64*I25+128*J25</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O25" t="s">
@@ -27903,18 +28090,26 @@
         <v>13</v>
       </c>
       <c r="R25">
-        <f>+K25</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S25" t="s">
         <v>12</v>
       </c>
       <c r="U25" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1130":"127",</v>
       </c>
+      <c r="Y25">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="19">
         <v>0.5</v>
       </c>
@@ -27943,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="5">
-        <f>1*C26+2*D26+4*E26+8*F26+16*G26+32*H26+64*I26+128*J26</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O26" t="s">
@@ -27956,18 +28151,26 @@
         <v>13</v>
       </c>
       <c r="R26">
-        <f>+K26</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S26" t="s">
         <v>12</v>
       </c>
       <c r="U26" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1200":"127",</v>
       </c>
+      <c r="Y26">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <v>0.52083333333333304</v>
       </c>
@@ -27996,7 +28199,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="4">
-        <f>1*C27+2*D27+4*E27+8*F27+16*G27+32*H27+64*I27+128*J27</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O27" t="s">
@@ -28009,18 +28212,26 @@
         <v>13</v>
       </c>
       <c r="R27">
-        <f>+K27</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S27" t="s">
         <v>12</v>
       </c>
       <c r="U27" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1230":"127",</v>
       </c>
+      <c r="Y27">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="19">
         <v>0.54166666666666696</v>
       </c>
@@ -28049,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="5">
-        <f>1*C28+2*D28+4*E28+8*F28+16*G28+32*H28+64*I28+128*J28</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="O28" t="s">
@@ -28062,18 +28273,26 @@
         <v>13</v>
       </c>
       <c r="R28">
-        <f>+K28</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="S28" t="s">
         <v>12</v>
       </c>
       <c r="U28" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1300":"95",</v>
       </c>
+      <c r="Y28">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95</v>
+      </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <v>0.5625</v>
       </c>
@@ -28102,7 +28321,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="4">
-        <f>1*C29+2*D29+4*E29+8*F29+16*G29+32*H29+64*I29+128*J29</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="O29" t="s">
@@ -28115,18 +28334,26 @@
         <v>13</v>
       </c>
       <c r="R29">
-        <f>+K29</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="S29" t="s">
         <v>12</v>
       </c>
       <c r="U29" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1330":"95",</v>
       </c>
+      <c r="Y29">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95</v>
+      </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="19">
         <v>0.58333333333333304</v>
       </c>
@@ -28155,7 +28382,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="5">
-        <f>1*C30+2*D30+4*E30+8*F30+16*G30+32*H30+64*I30+128*J30</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="O30" t="s">
@@ -28168,18 +28395,26 @@
         <v>13</v>
       </c>
       <c r="R30">
-        <f>+K30</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="S30" t="s">
         <v>12</v>
       </c>
       <c r="U30" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1400":"95",</v>
       </c>
+      <c r="Y30">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95</v>
+      </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <v>0.60416666666666696</v>
       </c>
@@ -28208,7 +28443,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="4">
-        <f>1*C31+2*D31+4*E31+8*F31+16*G31+32*H31+64*I31+128*J31</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="O31" t="s">
@@ -28221,18 +28456,26 @@
         <v>13</v>
       </c>
       <c r="R31">
-        <f>+K31</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="S31" t="s">
         <v>12</v>
       </c>
       <c r="U31" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1430":"95",</v>
       </c>
+      <c r="Y31">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95</v>
+      </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="19">
         <v>0.625</v>
       </c>
@@ -28261,7 +28504,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="5">
-        <f>1*C32+2*D32+4*E32+8*F32+16*G32+32*H32+64*I32+128*J32</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O32" t="s">
@@ -28274,18 +28517,26 @@
         <v>13</v>
       </c>
       <c r="R32">
-        <f>+K32</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S32" t="s">
         <v>12</v>
       </c>
       <c r="U32" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1500":"127",</v>
       </c>
+      <c r="Y32">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127</v>
+      </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <v>0.64583333333333304</v>
       </c>
@@ -28314,7 +28565,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="4">
-        <f>1*C33+2*D33+4*E33+8*F33+16*G33+32*H33+64*I33+128*J33</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O33" t="s">
@@ -28327,18 +28578,26 @@
         <v>13</v>
       </c>
       <c r="R33">
-        <f>+K33</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S33" t="s">
         <v>12</v>
       </c>
       <c r="U33" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1530":"127",</v>
       </c>
+      <c r="Y33">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127</v>
+      </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="19">
         <v>0.66666666666666696</v>
       </c>
@@ -28367,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="5">
-        <f>1*C34+2*D34+4*E34+8*F34+16*G34+32*H34+64*I34+128*J34</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O34" t="s">
@@ -28380,18 +28639,26 @@
         <v>13</v>
       </c>
       <c r="R34">
-        <f>+K34</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S34" t="s">
         <v>12</v>
       </c>
       <c r="U34" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1600":"127",</v>
       </c>
+      <c r="Y34">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127</v>
+      </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="18">
         <v>0.6875</v>
       </c>
@@ -28420,7 +28687,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="4">
-        <f>1*C35+2*D35+4*E35+8*F35+16*G35+32*H35+64*I35+128*J35</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O35" t="s">
@@ -28433,18 +28700,26 @@
         <v>13</v>
       </c>
       <c r="R35">
-        <f>+K35</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S35" t="s">
         <v>12</v>
       </c>
       <c r="U35" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1630":"127",</v>
       </c>
+      <c r="Y35">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127</v>
+      </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="19">
         <v>0.70833333333333304</v>
       </c>
@@ -28473,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="5">
-        <f>1*C36+2*D36+4*E36+8*F36+16*G36+32*H36+64*I36+128*J36</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O36" t="s">
@@ -28486,18 +28761,26 @@
         <v>13</v>
       </c>
       <c r="R36">
-        <f>+K36</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S36" t="s">
         <v>12</v>
       </c>
       <c r="U36" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1700":"127",</v>
       </c>
+      <c r="Y36">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="18">
         <v>0.72916666666666696</v>
       </c>
@@ -28526,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="4">
-        <f>1*C37+2*D37+4*E37+8*F37+16*G37+32*H37+64*I37+128*J37</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O37" t="s">
@@ -28539,18 +28822,26 @@
         <v>13</v>
       </c>
       <c r="R37">
-        <f>+K37</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S37" t="s">
         <v>12</v>
       </c>
       <c r="U37" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1730":"127",</v>
       </c>
+      <c r="Y37">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" s="19">
         <v>0.75</v>
       </c>
@@ -28579,7 +28870,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="5">
-        <f>1*C38+2*D38+4*E38+8*F38+16*G38+32*H38+64*I38+128*J38</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O38" t="s">
@@ -28592,18 +28883,26 @@
         <v>13</v>
       </c>
       <c r="R38">
-        <f>+K38</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S38" t="s">
         <v>12</v>
       </c>
       <c r="U38" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1800":"127",</v>
       </c>
+      <c r="Y38">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA38" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" s="18">
         <v>0.77083333333333304</v>
       </c>
@@ -28632,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="4">
-        <f>1*C39+2*D39+4*E39+8*F39+16*G39+32*H39+64*I39+128*J39</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O39" t="s">
@@ -28645,18 +28944,26 @@
         <v>13</v>
       </c>
       <c r="R39">
-        <f>+K39</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S39" t="s">
         <v>12</v>
       </c>
       <c r="U39" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1830":"127",</v>
       </c>
+      <c r="Y39">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" s="19">
         <v>0.79166666666666696</v>
       </c>
@@ -28685,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="5">
-        <f>1*C40+2*D40+4*E40+8*F40+16*G40+32*H40+64*I40+128*J40</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O40" t="s">
@@ -28698,18 +29005,26 @@
         <v>13</v>
       </c>
       <c r="R40">
-        <f>+K40</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S40" t="s">
         <v>12</v>
       </c>
       <c r="U40" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1900":"127",</v>
       </c>
+      <c r="Y40">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="18">
         <v>0.8125</v>
       </c>
@@ -28738,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4">
-        <f>1*C41+2*D41+4*E41+8*F41+16*G41+32*H41+64*I41+128*J41</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O41" t="s">
@@ -28751,18 +29066,26 @@
         <v>13</v>
       </c>
       <c r="R41">
-        <f>+K41</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S41" t="s">
         <v>12</v>
       </c>
       <c r="U41" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "1930":"127",</v>
       </c>
+      <c r="Y41">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="19">
         <v>0.83333333333333304</v>
       </c>
@@ -28791,7 +29114,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="5">
-        <f>1*C42+2*D42+4*E42+8*F42+16*G42+32*H42+64*I42+128*J42</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O42" t="s">
@@ -28804,18 +29127,26 @@
         <v>13</v>
       </c>
       <c r="R42">
-        <f>+K42</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S42" t="s">
         <v>12</v>
       </c>
       <c r="U42" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "2000":"127",</v>
       </c>
+      <c r="Y42">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="18">
         <v>0.85416666666666696</v>
       </c>
@@ -28844,7 +29175,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="4">
-        <f>1*C43+2*D43+4*E43+8*F43+16*G43+32*H43+64*I43+128*J43</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O43" t="s">
@@ -28857,18 +29188,26 @@
         <v>13</v>
       </c>
       <c r="R43">
-        <f>+K43</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S43" t="s">
         <v>12</v>
       </c>
       <c r="U43" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "2030":"127",</v>
       </c>
+      <c r="Y43">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" s="19">
         <v>0.875</v>
       </c>
@@ -28897,7 +29236,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="5">
-        <f>1*C44+2*D44+4*E44+8*F44+16*G44+32*H44+64*I44+128*J44</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O44" t="s">
@@ -28910,18 +29249,26 @@
         <v>13</v>
       </c>
       <c r="R44">
-        <f>+K44</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S44" t="s">
         <v>12</v>
       </c>
       <c r="U44" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "2100":"127",</v>
       </c>
+      <c r="Y44">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="18">
         <v>0.89583333333333304</v>
       </c>
@@ -28950,7 +29297,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="4">
-        <f>1*C45+2*D45+4*E45+8*F45+16*G45+32*H45+64*I45+128*J45</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O45" t="s">
@@ -28963,18 +29310,26 @@
         <v>13</v>
       </c>
       <c r="R45">
-        <f>+K45</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S45" t="s">
         <v>12</v>
       </c>
       <c r="U45" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "2130":"127",</v>
       </c>
+      <c r="Y45">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" s="19">
         <v>0.91666666666666696</v>
       </c>
@@ -29003,7 +29358,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="5">
-        <f>1*C46+2*D46+4*E46+8*F46+16*G46+32*H46+64*I46+128*J46</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O46" t="s">
@@ -29016,18 +29371,26 @@
         <v>13</v>
       </c>
       <c r="R46">
-        <f>+K46</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S46" t="s">
         <v>12</v>
       </c>
       <c r="U46" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "2200":"127",</v>
       </c>
+      <c r="Y46">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" s="18">
         <v>0.9375</v>
       </c>
@@ -29056,7 +29419,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="4">
-        <f>1*C47+2*D47+4*E47+8*F47+16*G47+32*H47+64*I47+128*J47</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O47" t="s">
@@ -29069,18 +29432,26 @@
         <v>13</v>
       </c>
       <c r="R47">
-        <f>+K47</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S47" t="s">
         <v>12</v>
       </c>
       <c r="U47" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "2230":"127",</v>
       </c>
+      <c r="Y47">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="19">
         <v>0.95833333333333304</v>
       </c>
@@ -29109,7 +29480,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="5">
-        <f>1*C48+2*D48+4*E48+8*F48+16*G48+32*H48+64*I48+128*J48</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O48" t="s">
@@ -29122,18 +29493,26 @@
         <v>13</v>
       </c>
       <c r="R48">
-        <f>+K48</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S48" t="s">
         <v>12</v>
       </c>
       <c r="U48" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "2300":"127",</v>
       </c>
+      <c r="Y48">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA48" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="49" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="20">
         <v>0.97916666666666696</v>
       </c>
@@ -29162,7 +29541,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="7">
-        <f>1*C49+2*D49+4*E49+8*F49+16*G49+32*H49+64*I49+128*J49</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="O49" t="s">
@@ -29175,20 +29554,33 @@
         <v>13</v>
       </c>
       <c r="R49">
-        <f>+K49</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="S49" t="s">
         <v>11</v>
       </c>
       <c r="U49" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  "2330":"127"</v>
       </c>
+      <c r="Y49">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AA49" t="str">
+        <f t="shared" si="4"/>
+        <v>0|0|0|0|0|0|0|0|0|0|0|0|0|0|31|31|31|127|127|127|127|127|127|127|127|127|95|95|95|95|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127|127</v>
+      </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="U50" s="21" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA51" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
